--- a/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,31</t>
+          <t>56,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,39</t>
+          <t>59,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61,33</t>
+          <t>60,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>66,25</t>
+          <t>56,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,27</t>
+          <t>58,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,1</t>
+          <t>57,91</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,06; 74,89</t>
+          <t>24,26; 76,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,74; 71,78</t>
+          <t>25,72; 80,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,71; 72,72</t>
+          <t>41,7; 74,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,03; 75,73</t>
+          <t>35,67; 72,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,82; 70,39</t>
+          <t>38,53; 71,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,17; 70,66</t>
+          <t>38,51; 71,21</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289,39%</t>
+          <t>179,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>271,48%</t>
+          <t>189,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>268,91%</t>
+          <t>204,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>290,47%</t>
+          <t>189,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>278,5%</t>
+          <t>192,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>282,21%</t>
+          <t>189,41%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,5; 600,57</t>
+          <t>38,33; 590,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,42; 562,36</t>
+          <t>36,16; 610,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>159,18; 467,6</t>
+          <t>92,54; 419,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>172,57; 476,58</t>
+          <t>79,4; 412,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>145,5; 417,61</t>
+          <t>74,08; 351,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>152,01; 420,14</t>
+          <t>77,52; 365,09</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>53,91</t>
+          <t>48,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,57</t>
+          <t>51,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,93</t>
+          <t>69,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,18</t>
+          <t>67,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,96</t>
+          <t>59,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,25</t>
+          <t>59,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,21; 62,14</t>
+          <t>35,6; 60,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,23; 62,19</t>
+          <t>35,62; 61,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,69; 67,23</t>
+          <t>60,0; 76,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,38; 66,83</t>
+          <t>59,73; 74,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,32; 62,77</t>
+          <t>51,06; 65,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,19; 62,48</t>
+          <t>51,62; 66,42</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>308,15%</t>
+          <t>241,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>311,94%</t>
+          <t>253,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>261,58%</t>
+          <t>406,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>262,65%</t>
+          <t>398,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>280,02%</t>
+          <t>318,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>281,43%</t>
+          <t>320,36%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>154,41; 490,55</t>
+          <t>97,15; 423,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>171,95; 489,93</t>
+          <t>104,93; 435,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>183,37; 353,25</t>
+          <t>259,65; 625,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>181,23; 357,38</t>
+          <t>257,98; 606,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>203,81; 374,43</t>
+          <t>194,41; 445,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>207,92; 369,7</t>
+          <t>197,9; 458,94</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>53,23</t>
+          <t>53,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>53,2</t>
+          <t>53,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,95</t>
+          <t>49,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,95</t>
+          <t>59,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>53,08</t>
+          <t>51,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,35</t>
+          <t>56,61</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,2; 61,36</t>
+          <t>43,31; 63,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,37; 61,35</t>
+          <t>41,44; 62,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,53; 60,27</t>
+          <t>39,74; 58,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,89; 67,11</t>
+          <t>50,14; 67,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,99; 57,88</t>
+          <t>43,52; 57,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,3; 62,39</t>
+          <t>49,26; 62,14</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1055,25%</t>
+          <t>1285,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1054,53%</t>
+          <t>1266,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>611,92%</t>
+          <t>528,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>704,39%</t>
+          <t>639,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>758,35%</t>
+          <t>726,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>819,36%</t>
+          <t>801,77%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>506,89; 2553,52</t>
+          <t>503,72; 3820,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>503,29; 2442,82</t>
+          <t>477,5; 3813,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>364,39; 1069,15</t>
+          <t>265,85; 1043,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>399,77; 1240,17</t>
+          <t>315,5; 1252,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>448,56; 1132,37</t>
+          <t>410,17; 1208,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>505,89; 1231,92</t>
+          <t>456,62; 1317,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>57,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>56,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,44</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>48,58; 61,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,08; 60,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,9; 62,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56,35; 65,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,95; 60,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,7; 62,17</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>399,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>396,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>326,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>347,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>356,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>367,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>259,25; 576,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>254,02; 575,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>247,0; 414,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>264,99; 433,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>282,36; 440,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>294,58; 453,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>52,15</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>53,37</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>59,88</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>63,05</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>56,29</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>58,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>41,97; 59,63</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>43,6; 61,21</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>54,1; 65,22</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>56,62; 68,57</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>50,47; 60,99</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>52,84; 62,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>332,71%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>340,51%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>390,69%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>411,41%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>363,44%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>377,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>170,3; 519,36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>174,65; 552,84</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>284,38; 534,74</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>295,47; 558,42</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>256,89; 485,32</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>260,88; 494,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>56,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>59,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>60,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>56,16</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>58,7</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>57,91</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>55.98095722244049</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>59.99803076063232</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>61.01462759638336</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>55.91049170074345</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>58.61047937136964</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>57.70740712729422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>24,26; 76,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>25,72; 80,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>41,7; 74,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>35,67; 72,49</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>38,53; 71,1</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>38,51; 71,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>24.44660840457356</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>26.69297445283312</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>42.30835387620427</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>34.89511849940147</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>38.91741910956075</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>38.37102128192863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>179,08%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>189,34%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>204,74%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>189,67%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>192,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>189,41%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>76.09139186544367</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>80.04981083766027</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>74.6898920406872</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>71.79229307813146</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>71.05471311469283</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>70.88437345437735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>38,33; 590,76</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>36,16; 610,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>92,54; 419,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>79,4; 412,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>74,08; 351,28</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>77,52; 365,09</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1.770805586879895</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.897874801435697</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>2.060788537536369</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.888394717199651</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.916988834976415</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.887451806314688</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>48,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>51,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>69,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>67,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>59,36</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>59,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.3665011601729122</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.3694125046453711</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9350851916485146</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.7972536147845325</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.7380141101258979</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.7696604075250071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>35,6; 60,11</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>35,62; 61,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>60,0; 76,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>59,73; 74,67</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>51,06; 65,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>51,62; 66,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5.730889666398827</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>6.094711182661681</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.251202362067424</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.105173198203153</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.508585952263502</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.602411300764116</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>241,08%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>253,15%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>406,8%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>398,5%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>318,88%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>320,36%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>48.86717843741336</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>50.9040260314371</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>69.40535107774383</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>68.40357700517626</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>59.51087662667916</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>59.73559568485263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>97,15; 423,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>104,93; 435,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>259,65; 625,08</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>257,98; 606,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>194,41; 445,09</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>197,9; 458,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>35.0373763434334</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>35.82833495218303</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>60.76008868673652</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>60.47343649541512</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>50.99131943709509</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>51.82157571399455</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>53,83</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>53,01</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>49,32</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>59,63</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>51,31</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>56,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>60.02861466858182</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>60.86270167777972</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>76.46444755890889</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>75.36918799511595</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>65.98178920069421</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>66.38922399951736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>43,31; 63,8</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>41,44; 62,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>39,74; 58,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>50,14; 67,83</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>43,52; 57,49</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>49,26; 62,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>2.406384585052249</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.506685826275681</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>4.082029626751071</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>4.023110950020349</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.196830696735922</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.208902251114412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1285,99%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1266,38%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>528,89%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>639,44%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>726,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>801,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.9643360922846538</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1.037776976234842</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.605941024886838</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2.615485278108588</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.959150713204539</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>2.01989395578161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>503,72; 3820,03</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>477,5; 3813,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>265,85; 1043,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>315,5; 1252,45</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>410,17; 1208,96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>456,62; 1317,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4.262229965506075</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>4.299692751516126</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>6.250485059652692</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>6.120620076313887</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.47306519310726</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.604197181110081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>52.45482173382633</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>53.07459699613507</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>49.7088481660987</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>59.70037122351335</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>50.89074632922406</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>56.65538706852055</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>41.10864408546162</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>41.92577908441044</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>40.30782726140827</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>49.90188573784634</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>43.23555042911402</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>49.27326031030598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>62.55932294533895</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>63.15232643575999</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>58.76891108128488</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>67.78125537531581</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>57.90839324647648</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>62.45925802858794</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>12.53212346556463</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>12.68019565133182</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>5.330219059321906</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>6.401597870078721</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>7.207872972911882</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>8.024343572783225</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>52,15</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>53,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>59,88</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>63,05</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>56,29</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>58,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>4.998304392870753</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>4.724792805978727</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.692872755434636</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>3.145220296592742</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>4.052243426371431</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>4.584051453002051</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>41,97; 59,63</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>43,6; 61,21</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>54,1; 65,22</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>56,62; 68,57</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>50,47; 60,99</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>52,84; 62,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>37.69732394093464</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>38.4630967596217</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>10.52097301245299</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>12.43751322002641</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>12.04982626235272</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>13.15040181641563</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>332,71%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>340,51%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>390,69%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>411,41%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>363,44%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>377,32%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>51.25744923254443</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>53.06279104339331</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>60.40246863016636</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>63.50468169597139</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>56.11763006761854</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>58.56274884502014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>170,3; 519,36</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>174,65; 552,84</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>284,38; 534,74</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>295,47; 558,42</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>256,89; 485,32</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>260,88; 494,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>40.45777801945081</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>42.9519415725974</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>54.35545703448685</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>57.62503478358899</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>50.39596946866835</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>53.02467599719586</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>58.77386919119238</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>60.56559288812772</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>65.55781803197634</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>69.02700646491563</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>60.84229195291193</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>62.86650440170166</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3.270344348720298</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>3.385529350647188</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>3.941213879962275</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>4.143630858453861</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>3.623167273607282</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>3.781033425896491</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1.62498218394486</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.736152112288773</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>2.869869843306063</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2.983168295738014</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>2.549423899356872</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>2.615179076666855</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>5.143012075551785</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>5.533261879067753</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>5.379049367122759</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>5.624575063672101</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>4.832839713523273</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>4.958407255532286</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
